--- a/outputs-HGR-r202/c__Negativicutes.xlsx
+++ b/outputs-HGR-r202/c__Negativicutes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H432"/>
+  <dimension ref="A1:I432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +580,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -595,6 +615,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,6 +650,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -655,6 +685,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,6 +720,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -715,6 +755,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -745,6 +790,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -775,6 +825,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -805,6 +860,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -835,6 +895,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -865,6 +930,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -895,6 +965,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -925,6 +1000,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -955,6 +1035,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -985,6 +1070,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1015,6 +1105,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1045,6 +1140,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1075,6 +1175,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1105,6 +1210,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1135,6 +1245,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1165,6 +1280,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1195,6 +1315,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1225,6 +1350,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1255,6 +1385,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1285,6 +1420,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1315,6 +1455,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1345,6 +1490,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1375,6 +1525,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1405,6 +1560,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1435,6 +1595,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1465,6 +1630,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1495,6 +1665,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1525,6 +1700,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1555,6 +1735,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1585,6 +1770,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1615,6 +1805,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1645,6 +1840,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1675,6 +1875,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1705,6 +1910,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1735,6 +1945,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1765,6 +1980,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1795,6 +2015,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1825,6 +2050,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1855,6 +2085,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1885,6 +2120,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1915,6 +2155,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1945,6 +2190,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1975,6 +2225,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2005,6 +2260,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2035,6 +2295,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2065,6 +2330,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2095,6 +2365,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2125,6 +2400,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2155,6 +2435,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2185,6 +2470,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2215,6 +2505,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2245,6 +2540,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2275,6 +2575,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2305,6 +2610,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2335,6 +2645,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2365,6 +2680,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2395,6 +2715,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2425,6 +2750,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2455,6 +2785,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2485,6 +2820,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2515,6 +2855,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2545,6 +2890,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2575,6 +2925,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2605,6 +2960,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2635,6 +2995,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2665,6 +3030,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2695,6 +3065,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2725,6 +3100,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2755,6 +3135,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2785,6 +3170,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2815,6 +3205,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2845,6 +3240,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2875,6 +3275,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2905,6 +3310,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2935,6 +3345,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2965,6 +3380,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2995,6 +3415,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3025,6 +3450,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -3055,6 +3485,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -3085,6 +3520,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3115,6 +3555,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -3145,6 +3590,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3175,6 +3625,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -3205,6 +3660,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -3235,6 +3695,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -3265,6 +3730,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3295,6 +3765,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3325,6 +3800,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3355,6 +3835,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3385,6 +3870,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3415,6 +3905,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -3445,6 +3940,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3475,6 +3975,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -3505,6 +4010,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -3535,6 +4045,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -3565,6 +4080,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3595,6 +4115,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -3625,6 +4150,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3655,6 +4185,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3685,6 +4220,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3715,6 +4255,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3745,6 +4290,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -3775,6 +4325,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -3805,6 +4360,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -3835,6 +4395,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3865,6 +4430,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3895,6 +4465,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -3925,6 +4500,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3955,6 +4535,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -3985,6 +4570,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -4015,6 +4605,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -4045,6 +4640,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -4075,6 +4675,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -4105,6 +4710,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -4135,6 +4745,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -4165,6 +4780,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -4195,6 +4815,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -4225,6 +4850,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -4255,6 +4885,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -4285,6 +4920,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -4315,6 +4955,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -4345,6 +4990,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -4375,6 +5025,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -4405,6 +5060,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -4435,6 +5095,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -4465,6 +5130,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -4495,6 +5165,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -4525,6 +5200,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -4555,6 +5235,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -4585,6 +5270,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -4615,6 +5305,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -4645,6 +5340,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -4675,6 +5375,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -4705,6 +5410,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -4735,6 +5445,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -4765,6 +5480,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -4795,6 +5515,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -4825,6 +5550,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -4855,6 +5585,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -4885,6 +5620,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -4915,6 +5655,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -4945,6 +5690,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -4975,6 +5725,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -5005,6 +5760,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -5035,6 +5795,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -5065,6 +5830,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -5095,6 +5865,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -5125,6 +5900,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -5155,6 +5935,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -5185,6 +5970,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -5215,6 +6005,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -5245,6 +6040,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -5275,6 +6075,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -5305,6 +6110,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -5335,6 +6145,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -5365,6 +6180,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -5395,6 +6215,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -5425,6 +6250,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -5455,6 +6285,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -5485,6 +6320,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -5515,6 +6355,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -5545,6 +6390,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -5575,6 +6425,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -5605,6 +6460,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -5635,6 +6495,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -5665,6 +6530,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -5695,6 +6565,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -5725,6 +6600,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -5755,6 +6635,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -5785,6 +6670,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -5815,6 +6705,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -5845,6 +6740,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -5875,6 +6775,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -5905,6 +6810,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -5935,6 +6845,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -5965,6 +6880,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -5995,6 +6915,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -6025,6 +6950,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -6055,6 +6985,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -6085,6 +7020,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -6115,6 +7055,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -6145,6 +7090,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -6175,6 +7125,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -6205,6 +7160,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -6235,6 +7195,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -6265,6 +7230,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -6295,6 +7265,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -6325,6 +7300,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -6355,6 +7335,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -6385,6 +7370,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -6415,6 +7405,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -6445,6 +7440,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -6475,6 +7475,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -6505,6 +7510,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -6535,6 +7545,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -6565,6 +7580,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -6595,6 +7615,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -6625,6 +7650,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -6655,6 +7685,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -6685,6 +7720,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -6715,6 +7755,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -6745,6 +7790,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -6775,6 +7825,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -6805,6 +7860,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -6835,6 +7895,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -6865,6 +7930,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -6895,6 +7965,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -6925,6 +8000,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -6955,6 +8035,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -6985,6 +8070,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -7015,6 +8105,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -7045,6 +8140,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -7075,6 +8175,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -7105,6 +8210,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -7135,6 +8245,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -7165,6 +8280,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -7195,6 +8315,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -7225,6 +8350,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -7255,6 +8385,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -7285,6 +8420,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -7315,6 +8455,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -7345,6 +8490,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -7375,6 +8525,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -7405,6 +8560,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -7435,6 +8595,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -7465,6 +8630,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -7495,6 +8665,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -7525,6 +8700,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -7555,6 +8735,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -7585,6 +8770,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -7615,6 +8805,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -7645,6 +8840,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -7675,6 +8875,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -7705,6 +8910,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -7735,6 +8945,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -7765,6 +8980,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -7795,6 +9015,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -7825,6 +9050,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -7855,6 +9085,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -7885,6 +9120,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -7915,6 +9155,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -7945,6 +9190,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -7975,6 +9225,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -8005,6 +9260,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -8035,6 +9295,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -8065,6 +9330,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -8095,6 +9365,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -8125,6 +9400,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -8155,6 +9435,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -8185,6 +9470,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -8215,6 +9505,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -8245,6 +9540,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -8275,6 +9575,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -8305,6 +9610,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -8335,6 +9645,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -8365,6 +9680,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -8395,6 +9715,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -8425,6 +9750,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -8455,6 +9785,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -8485,6 +9820,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -8515,6 +9855,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -8545,6 +9890,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -8575,6 +9925,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -8605,6 +9960,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -8635,6 +9995,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -8665,6 +10030,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -8695,6 +10065,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -8725,6 +10100,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -8755,6 +10135,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -8785,6 +10170,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -8815,6 +10205,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -8845,6 +10240,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -8875,6 +10275,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -8905,6 +10310,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -8935,6 +10345,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -8965,6 +10380,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -8995,6 +10415,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -9025,6 +10450,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -9055,6 +10485,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -9085,6 +10520,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -9115,6 +10555,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -9145,6 +10590,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -9175,6 +10625,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -9205,6 +10660,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -9235,6 +10695,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -9265,6 +10730,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -9295,6 +10765,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -9325,6 +10800,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -9355,6 +10835,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -9385,6 +10870,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -9415,6 +10905,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -9445,6 +10940,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -9475,6 +10975,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -9505,6 +11010,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -9535,6 +11045,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -9565,6 +11080,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -9595,6 +11115,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -9625,6 +11150,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -9655,6 +11185,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -9685,6 +11220,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -9715,6 +11255,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -9745,6 +11290,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -9775,6 +11325,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -9805,6 +11360,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -9835,6 +11395,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -9865,6 +11430,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -9895,6 +11465,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -9925,6 +11500,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -9955,6 +11535,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -9985,6 +11570,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -10015,6 +11605,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -10045,6 +11640,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -10075,6 +11675,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -10105,6 +11710,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -10135,6 +11745,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -10165,6 +11780,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -10195,6 +11815,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -10225,6 +11850,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -10255,6 +11885,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -10285,6 +11920,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -10315,6 +11955,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -10345,6 +11990,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -10375,6 +12025,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -10405,6 +12060,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -10435,6 +12095,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -10465,6 +12130,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -10495,6 +12165,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -10525,6 +12200,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -10555,6 +12235,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -10585,6 +12270,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -10615,6 +12305,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -10645,6 +12340,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -10675,6 +12375,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -10705,6 +12410,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -10735,6 +12445,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -10765,6 +12480,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -10795,6 +12515,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -10825,6 +12550,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -10855,6 +12585,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -10885,6 +12620,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -10915,6 +12655,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -10945,6 +12690,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -10975,6 +12725,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -11005,6 +12760,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -11035,6 +12795,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -11065,6 +12830,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -11095,6 +12865,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -11125,6 +12900,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -11155,6 +12935,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -11185,6 +12970,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -11215,6 +13005,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -11245,6 +13040,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -11275,6 +13075,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -11305,6 +13110,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -11335,6 +13145,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -11365,6 +13180,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -11395,6 +13215,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -11425,6 +13250,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -11455,6 +13285,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -11485,6 +13320,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -11515,6 +13355,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -11545,6 +13390,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -11575,6 +13425,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -11605,6 +13460,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -11635,6 +13495,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -11665,6 +13530,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -11695,6 +13565,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -11725,6 +13600,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -11755,6 +13635,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -11785,6 +13670,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -11815,6 +13705,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -11845,6 +13740,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -11875,6 +13775,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -11905,6 +13810,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -11935,6 +13845,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -11965,6 +13880,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -11995,6 +13915,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -12025,6 +13950,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -12055,6 +13985,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -12085,6 +14020,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -12115,6 +14055,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -12145,6 +14090,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -12175,6 +14125,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -12205,6 +14160,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -12235,6 +14195,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -12265,6 +14230,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -12295,6 +14265,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -12325,6 +14300,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -12355,6 +14335,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -12385,6 +14370,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -12415,6 +14405,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -12445,6 +14440,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -12475,6 +14475,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -12505,6 +14510,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -12535,6 +14545,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
@@ -12565,6 +14580,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -12595,6 +14615,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -12625,6 +14650,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -12655,6 +14685,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -12685,6 +14720,11 @@
           <t>o__Acidaminococcales</t>
         </is>
       </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -12715,6 +14755,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -12745,6 +14790,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -12775,6 +14825,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -12805,6 +14860,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -12835,6 +14895,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -12865,6 +14930,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -12895,6 +14965,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -12925,6 +15000,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -12955,6 +15035,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -12985,6 +15070,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -13015,6 +15105,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
@@ -13045,6 +15140,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
@@ -13075,6 +15175,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
@@ -13105,6 +15210,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
@@ -13135,6 +15245,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
@@ -13165,6 +15280,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
@@ -13195,6 +15315,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
@@ -13225,6 +15350,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
@@ -13255,6 +15385,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
@@ -13285,6 +15420,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
@@ -13315,6 +15455,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
@@ -13345,6 +15490,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
@@ -13375,6 +15525,11 @@
           <t>o__Veillonellales</t>
         </is>
       </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>o__Veillonellales</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
@@ -13401,6 +15556,11 @@
         <v>0.9999349505614517</v>
       </c>
       <c r="H432" t="inlineStr">
+        <is>
+          <t>o__Acidaminococcales</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
         <is>
           <t>o__Acidaminococcales</t>
         </is>
